--- a/08_baroreceptor_reflex/08_baroreceptor_reflex_data.xlsx
+++ b/08_baroreceptor_reflex/08_baroreceptor_reflex_data.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>0.8</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45.75" thickBot="1">
@@ -511,7 +511,7 @@
         <v>2.1</v>
       </c>
       <c r="E4" s="4">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="F4" s="4">
         <v>5.4</v>
@@ -522,10 +522,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="4">
         <v>71</v>
@@ -534,7 +534,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45.75" thickBot="1">
@@ -551,7 +551,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F6" s="4">
         <v>82</v>
@@ -562,19 +562,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>6277</v>
+        <v>6254</v>
       </c>
       <c r="C7" s="4">
-        <v>5853</v>
+        <v>5831</v>
       </c>
       <c r="D7" s="4">
-        <v>5290</v>
+        <v>5287</v>
       </c>
       <c r="E7" s="4">
-        <v>4509</v>
+        <v>4532</v>
       </c>
       <c r="F7" s="4">
-        <v>4229</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45.75" thickBot="1">
@@ -582,7 +582,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>1.9E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C8" s="4">
         <v>1.9E-2</v>
@@ -602,19 +602,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/08_baroreceptor_reflex/08_baroreceptor_reflex_data.xlsx
+++ b/08_baroreceptor_reflex/08_baroreceptor_reflex_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="9525"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Baroreceptor Reflex</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Arterial Pressure(mmHg)</t>
+  </si>
+  <si>
+    <t>QCP</t>
+  </si>
+  <si>
+    <t>HumMod</t>
   </si>
 </sst>
 </file>
@@ -444,20 +450,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="45.75" thickBot="1">
+    <row r="2" spans="1:13" ht="45.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -476,8 +488,26 @@
       <c r="F2" s="2">
         <v>140</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2">
+        <v>80</v>
+      </c>
+      <c r="K2" s="2">
+        <v>100</v>
+      </c>
+      <c r="L2" s="2">
+        <v>120</v>
+      </c>
+      <c r="M2" s="2">
+        <v>140</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="60.75" thickBot="1">
+    <row r="3" spans="1:13" ht="60.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -496,8 +526,26 @@
       <c r="F3" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="45.75" thickBot="1">
+    <row r="4" spans="1:13" ht="45.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -516,8 +564,26 @@
       <c r="F4" s="4">
         <v>5.4</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="L4" s="4">
+        <v>4.29</v>
+      </c>
+      <c r="M4" s="4">
+        <v>5.42</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="45.75" thickBot="1">
+    <row r="5" spans="1:13" ht="45.75" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -536,8 +602,26 @@
       <c r="F5" s="4">
         <v>51</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>90</v>
+      </c>
+      <c r="J5" s="4">
+        <v>81</v>
+      </c>
+      <c r="K5" s="4">
+        <v>71</v>
+      </c>
+      <c r="L5" s="4">
+        <v>56</v>
+      </c>
+      <c r="M5" s="4">
+        <v>52</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="45.75" thickBot="1">
+    <row r="6" spans="1:13" ht="45.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -556,8 +640,26 @@
       <c r="F6" s="4">
         <v>82</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>75</v>
+      </c>
+      <c r="J6" s="4">
+        <v>76</v>
+      </c>
+      <c r="K6" s="4">
+        <v>76</v>
+      </c>
+      <c r="L6" s="4">
+        <v>77</v>
+      </c>
+      <c r="M6" s="4">
+        <v>76</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="75.75" thickBot="1">
+    <row r="7" spans="1:13" ht="75.75" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -576,8 +678,26 @@
       <c r="F7" s="4">
         <v>4234</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6772</v>
+      </c>
+      <c r="J7" s="4">
+        <v>6160</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5363</v>
+      </c>
+      <c r="L7" s="4">
+        <v>4313</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3939</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="45.75" thickBot="1">
+    <row r="8" spans="1:13" ht="45.75" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -596,8 +716,26 @@
       <c r="F8" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.83E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1.61E-2</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1.5299999999999999E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" ht="60.75" thickBot="1">
+    <row r="9" spans="1:13" ht="60.75" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -615,6 +753,24 @@
       </c>
       <c r="F9" s="4">
         <v>72</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="4">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="J9" s="4">
+        <v>113.5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>94.3</v>
+      </c>
+      <c r="L9" s="4">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="M9" s="4">
+        <v>63.3</v>
       </c>
     </row>
   </sheetData>

--- a/08_baroreceptor_reflex/08_baroreceptor_reflex_data.xlsx
+++ b/08_baroreceptor_reflex/08_baroreceptor_reflex_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Baroreceptor Reflex</t>
   </si>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +68,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,10 +146,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -156,11 +164,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -450,15 +531,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45.75" thickBot="1">
+    <row r="2" spans="1:20" ht="45.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -506,8 +587,26 @@
       <c r="M2" s="2">
         <v>140</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>80</v>
+      </c>
+      <c r="R2" s="2">
+        <v>100</v>
+      </c>
+      <c r="S2" s="2">
+        <v>120</v>
+      </c>
+      <c r="T2" s="2">
+        <v>140</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="60.75" thickBot="1">
+    <row r="3" spans="1:20" ht="60.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -544,8 +643,31 @@
       <c r="M3" s="4">
         <v>0.74</v>
       </c>
+      <c r="O3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5">
+        <f>ABS((B3-I3)/B3)</f>
+        <v>1.7391304347826105E-2</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:T3" si="0">ABS((C3-J3)/C3)</f>
+        <v>5.2631578947368472E-3</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" si="0"/>
+        <v>9.5714285714285694</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="45.75" thickBot="1">
+    <row r="4" spans="1:20" ht="45.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -582,8 +704,31 @@
       <c r="M4" s="4">
         <v>5.42</v>
       </c>
+      <c r="O4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:P9" si="1">ABS((B4-I4)/B4)</f>
+        <v>3.7499999999999895E-2</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" ref="Q4:Q9" si="2">ABS((C4-J4)/C4)</f>
+        <v>1.5384615384615398E-2</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" ref="R4:R9" si="3">ABS((D4-K4)/D4)</f>
+        <v>1.9047619047619063E-2</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" ref="S4:S9" si="4">ABS((E4-L4)/E4)</f>
+        <v>2.1428571428571394E-2</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" ref="T4:T9" si="5">ABS((F4-M4)/F4)</f>
+        <v>3.7037037037036245E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="45.75" thickBot="1">
+    <row r="5" spans="1:20" ht="45.75" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -620,8 +765,31 @@
       <c r="M5" s="4">
         <v>52</v>
       </c>
+      <c r="O5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1235955056179775E-2</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="5"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="45.75" thickBot="1">
+    <row r="6" spans="1:20" ht="45.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -658,8 +826,31 @@
       <c r="M6" s="4">
         <v>76</v>
       </c>
+      <c r="O6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="4"/>
+        <v>4.9382716049382713E-2</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="5"/>
+        <v>7.3170731707317069E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" ht="75.75" thickBot="1">
+    <row r="7" spans="1:20" ht="75.75" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -696,8 +887,31 @@
       <c r="M7" s="4">
         <v>3939</v>
       </c>
+      <c r="O7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="1"/>
+        <v>8.2826990725935398E-2</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="2"/>
+        <v>5.6422569027611044E-2</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4374881785511632E-2</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="4"/>
+        <v>4.8323036187113859E-2</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="5"/>
+        <v>6.9674067076051019E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" ht="45.75" thickBot="1">
+    <row r="8" spans="1:20" ht="45.75" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -734,8 +948,31 @@
       <c r="M8" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
+      <c r="O8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4999999999999962E-2</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="2"/>
+        <v>3.6842105263157857E-2</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="3"/>
+        <v>3.8888888888888848E-2</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" si="4"/>
+        <v>5.2941176470588318E-2</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" si="5"/>
+        <v>0.1000000000000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" ht="60.75" thickBot="1">
+    <row r="9" spans="1:20" ht="60.75" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -772,8 +1009,40 @@
       <c r="M9" s="4">
         <v>63.3</v>
       </c>
+      <c r="O9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="1"/>
+        <v>6.8032786885245999E-2</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="2"/>
+        <v>3.1818181818181815E-2</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="3"/>
+        <v>1.7708333333333364E-2</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="4"/>
+        <v>7.8205128205128135E-2</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="5"/>
+        <v>0.12083333333333338</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="P3:T9">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="between">
+      <formula>0.5</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/08_baroreceptor_reflex/08_baroreceptor_reflex_data.xlsx
+++ b/08_baroreceptor_reflex/08_baroreceptor_reflex_data.xlsx
@@ -150,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -164,73 +164,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -534,7 +481,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:T9"/>
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -590,19 +537,19 @@
       <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="5">
         <v>60</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="5">
         <v>80</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="5">
         <v>100</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="5">
         <v>120</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="5">
         <v>140</v>
       </c>
     </row>
@@ -643,26 +590,26 @@
       <c r="M3" s="4">
         <v>0.74</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="6">
         <f>ABS((B3-I3)/B3)</f>
         <v>1.7391304347826105E-2</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="6">
         <f t="shared" ref="Q3:T3" si="0">ABS((C3-J3)/C3)</f>
         <v>5.2631578947368472E-3</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="6">
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="6">
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="6">
         <f t="shared" si="0"/>
         <v>9.5714285714285694</v>
       </c>
@@ -704,26 +651,26 @@
       <c r="M4" s="4">
         <v>5.42</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="6">
         <f t="shared" ref="P4:P9" si="1">ABS((B4-I4)/B4)</f>
         <v>3.7499999999999895E-2</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="6">
         <f t="shared" ref="Q4:Q9" si="2">ABS((C4-J4)/C4)</f>
         <v>1.5384615384615398E-2</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="6">
         <f t="shared" ref="R4:R9" si="3">ABS((D4-K4)/D4)</f>
         <v>1.9047619047619063E-2</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="6">
         <f t="shared" ref="S4:S9" si="4">ABS((E4-L4)/E4)</f>
         <v>2.1428571428571394E-2</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="6">
         <f t="shared" ref="T4:T9" si="5">ABS((F4-M4)/F4)</f>
         <v>3.7037037037036245E-3</v>
       </c>
@@ -765,26 +712,26 @@
       <c r="M5" s="4">
         <v>52</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="6">
         <f t="shared" si="1"/>
         <v>1.1235955056179775E-2</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="6">
         <f t="shared" si="5"/>
         <v>1.9607843137254902E-2</v>
       </c>
@@ -826,26 +773,26 @@
       <c r="M6" s="4">
         <v>76</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="6">
         <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="6">
         <f t="shared" si="2"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="6">
         <f t="shared" si="3"/>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="6">
         <f t="shared" si="4"/>
         <v>4.9382716049382713E-2</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="6">
         <f t="shared" si="5"/>
         <v>7.3170731707317069E-2</v>
       </c>
@@ -887,26 +834,26 @@
       <c r="M7" s="4">
         <v>3939</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="6">
         <f t="shared" si="1"/>
         <v>8.2826990725935398E-2</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="6">
         <f t="shared" si="2"/>
         <v>5.6422569027611044E-2</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="6">
         <f t="shared" si="3"/>
         <v>1.4374881785511632E-2</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="6">
         <f t="shared" si="4"/>
         <v>4.8323036187113859E-2</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="6">
         <f t="shared" si="5"/>
         <v>6.9674067076051019E-2</v>
       </c>
@@ -948,26 +895,26 @@
       <c r="M8" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="6">
         <f t="shared" si="1"/>
         <v>3.4999999999999962E-2</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="6">
         <f t="shared" si="2"/>
         <v>3.6842105263157857E-2</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="6">
         <f t="shared" si="3"/>
         <v>3.8888888888888848E-2</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="6">
         <f t="shared" si="4"/>
         <v>5.2941176470588318E-2</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="6">
         <f t="shared" si="5"/>
         <v>0.1000000000000001</v>
       </c>
@@ -1009,37 +956,37 @@
       <c r="M9" s="4">
         <v>63.3</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="6">
         <f t="shared" si="1"/>
         <v>6.8032786885245999E-2</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="6">
         <f t="shared" si="2"/>
         <v>3.1818181818181815E-2</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="6">
         <f t="shared" si="3"/>
         <v>1.7708333333333364E-2</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="6">
         <f t="shared" si="4"/>
         <v>7.8205128205128135E-2</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="6">
         <f t="shared" si="5"/>
         <v>0.12083333333333338</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P3:T9">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>0.5</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
